--- a/public/upload/数据源3月24.xlsx
+++ b/public/upload/数据源3月24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22740" windowHeight="8505"/>
+    <workbookView windowWidth="22980" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
@@ -483,16 +483,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,9 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,29 +574,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,14 +598,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -606,17 +606,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,7 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,37 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,25 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +768,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,19 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,6 +940,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -958,30 +978,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,13 +1012,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +1043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,133 +1055,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6953,7 +6953,7 @@
   <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A3" s="20" t="str">
-        <f t="shared" ref="A3:A10" si="0">HYPERLINK(AX3,AY3)</f>
+        <f t="shared" ref="A3:A66" si="0">HYPERLINK(AX3,AY3)</f>
         <v>1郭</v>
       </c>
       <c r="B3" s="21">
@@ -7328,32 +7328,32 @@
         <v>68</v>
       </c>
       <c r="AP3" s="48" t="str">
-        <f t="shared" ref="AP3:AP10" si="2">LEFT(L3,4)</f>
+        <f t="shared" ref="AP3:AP66" si="2">LEFT(L3,4)</f>
         <v>HLXU</v>
       </c>
       <c r="AQ3" s="48" t="str">
-        <f t="shared" ref="AQ3:AQ10" si="3">MID(L3,5,6)</f>
+        <f t="shared" ref="AQ3:AQ66" si="3">MID(L3,5,6)</f>
         <v>314037</v>
       </c>
       <c r="AR3" s="49" t="str">
-        <f t="shared" ref="AR3:AR10" si="4">""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP3,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP3,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP3,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ3,1,1)*2^4+MIDB(AQ3,2,1)*2^5+MIDB(AQ3,3,1)*2^6+MIDB(AQ3,4,1)*2^7+MIDB(AQ3,5,1)*2^8+MIDB(AQ3,6,1)*2^9,11),1)</f>
+        <f t="shared" ref="AR3:AR66" si="4">""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP3,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP3,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP3,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ3,1,1)*2^4+MIDB(AQ3,2,1)*2^5+MIDB(AQ3,3,1)*2^6+MIDB(AQ3,4,1)*2^7+MIDB(AQ3,5,1)*2^8+MIDB(AQ3,6,1)*2^9,11),1)</f>
         <v>4</v>
       </c>
       <c r="AS3" s="45" t="str">
-        <f t="shared" ref="AS3:AS10" si="5">AP3&amp;AQ3&amp;AR3</f>
+        <f t="shared" ref="AS3:AS66" si="5">AP3&amp;AQ3&amp;AR3</f>
         <v>HLXU3140374</v>
       </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="11" t="str">
-        <f t="shared" ref="AU3:AU10" si="6">IF(LEN(I3)=LENB(I3),"不含中文船名","ok")</f>
+        <f t="shared" ref="AU3:AU66" si="6">IF(LEN(I3)=LENB(I3),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV3" s="50" t="str">
-        <f t="shared" ref="AV3:AV10" si="7">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),"ok","ok")</f>
+        <f t="shared" ref="AV3:AV66" si="7">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW3" s="29" t="str">
-        <f t="shared" ref="AW3:AW10" si="8">IF(I3="","√",IF(AU3="OK",IF(AV3="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" ref="AW3:AW66" si="8">IF(I3="","√",IF(AU3="OK",IF(AV3="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX3" s="11" t="str">
@@ -7361,18 +7361,18 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\诚安泽\小申\HLCUTS1190849351</v>
       </c>
       <c r="AY3" s="11" t="str">
-        <f t="shared" ref="AY3:AY10" si="9">IF(B3="","",ROW()-2)&amp;AZ3</f>
+        <f t="shared" ref="AY3:AY66" si="9">IF(B3="","",ROW()-2)&amp;AZ3</f>
         <v>1郭</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA3" s="11" t="str">
-        <f t="shared" ref="BA3:BA10" si="10">SUBSTITUTE(I3," ","")</f>
+        <f t="shared" ref="BA3:BA66" si="10">SUBSTITUTE(I3," ","")</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
       <c r="BB3" s="11" t="str">
-        <f t="shared" ref="BB3:BB10" si="11">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),SUBSTITUTE(SUBSTITUTE(BA3,"（","("),"）",")"),BA3)</f>
+        <f t="shared" ref="BB3:BB66" si="11">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),SUBSTITUTE(SUBSTITUTE(BA3,"（","("),"）",")"),BA3)</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
     </row>
@@ -8386,29 +8386,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C11:C1048576">
       <formula1>[1]客户档案!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10">
+      <formula1>"20GP,40HC,40GP"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U10 U11:U1048576">
       <formula1>[1]司机联系!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D181 D182:D806 D807:D1048260 D1048261:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D106 D107:D731 D732:D1048185 D1048186:D1048576">
       <formula1>INDIRECT($C1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10">
-      <formula1>"20GP,40HC,40GP"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL10 AL11:AL1048576">
+      <formula1>"大春,李宏博,杨瑞"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X10 X11:X1048576">
-      <formula1>"出, 进"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R11:R1048576">
+      <formula1>"已换单,已留车,产装中,已落重,已集港,无舱单,已交运抵,运抵正常,办理转船,已离港"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T10 T11:T1048576">
       <formula1>"联盟国际,欧亚国际,东方海陆,集装箱,五洲国际,太平洋"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R11:R1048576">
-      <formula1>"已换单,已留车,产装中,已落重,已集港,无舱单,已交运抵,运抵正常,办理转船,已离港"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL10 AL11:AL1048576">
-      <formula1>"大春,李宏博,杨瑞"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ10 AZ11:AZ1048576">
       <formula1>"郭,鱼"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X10 X11:X1048576">
+      <formula1>"出, 进"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/public/upload/数据源3月24.xlsx
+++ b/public/upload/数据源3月24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22980" windowHeight="9090"/>
+    <workbookView windowWidth="24855" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -405,11 +405,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -484,9 +484,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,38 +513,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +543,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -564,27 +588,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,17 +604,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,8 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +678,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,19 +726,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,25 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,109 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,29 +940,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,36 +958,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,8 +980,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +1043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,133 +1055,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6953,7 +6953,7 @@
   <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A3" s="20" t="str">
-        <f t="shared" ref="A3:A66" si="0">HYPERLINK(AX3,AY3)</f>
+        <f>HYPERLINK(AX3,AY3)</f>
         <v>1郭</v>
       </c>
       <c r="B3" s="21">
@@ -7312,7 +7312,7 @@
       <c r="AG3" s="36"/>
       <c r="AH3" s="36"/>
       <c r="AI3" s="39">
-        <f t="shared" ref="AI3:AI6" si="1">SUM(Y3:AH3)</f>
+        <f t="shared" ref="AI3:AI6" si="0">SUM(Y3:AH3)</f>
         <v>900</v>
       </c>
       <c r="AJ3" s="40">
@@ -7328,32 +7328,32 @@
         <v>68</v>
       </c>
       <c r="AP3" s="48" t="str">
-        <f t="shared" ref="AP3:AP66" si="2">LEFT(L3,4)</f>
+        <f>LEFT(L3,4)</f>
         <v>HLXU</v>
       </c>
       <c r="AQ3" s="48" t="str">
-        <f t="shared" ref="AQ3:AQ66" si="3">MID(L3,5,6)</f>
+        <f>MID(L3,5,6)</f>
         <v>314037</v>
       </c>
       <c r="AR3" s="49" t="str">
-        <f t="shared" ref="AR3:AR66" si="4">""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP3,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP3,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP3,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ3,1,1)*2^4+MIDB(AQ3,2,1)*2^5+MIDB(AQ3,3,1)*2^6+MIDB(AQ3,4,1)*2^7+MIDB(AQ3,5,1)*2^8+MIDB(AQ3,6,1)*2^9,11),1)</f>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP3,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP3,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP3,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ3,1,1)*2^4+MIDB(AQ3,2,1)*2^5+MIDB(AQ3,3,1)*2^6+MIDB(AQ3,4,1)*2^7+MIDB(AQ3,5,1)*2^8+MIDB(AQ3,6,1)*2^9,11),1)</f>
         <v>4</v>
       </c>
       <c r="AS3" s="45" t="str">
-        <f t="shared" ref="AS3:AS66" si="5">AP3&amp;AQ3&amp;AR3</f>
+        <f>AP3&amp;AQ3&amp;AR3</f>
         <v>HLXU3140374</v>
       </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="11" t="str">
-        <f t="shared" ref="AU3:AU66" si="6">IF(LEN(I3)=LENB(I3),"不含中文船名","ok")</f>
+        <f>IF(LEN(I3)=LENB(I3),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV3" s="50" t="str">
-        <f t="shared" ref="AV3:AV66" si="7">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),"ok","ok")</f>
+        <f>IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW3" s="29" t="str">
-        <f t="shared" ref="AW3:AW66" si="8">IF(I3="","√",IF(AU3="OK",IF(AV3="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f>IF(I3="","√",IF(AU3="OK",IF(AV3="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX3" s="11" t="str">
@@ -7361,24 +7361,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\诚安泽\小申\HLCUTS1190849351</v>
       </c>
       <c r="AY3" s="11" t="str">
-        <f t="shared" ref="AY3:AY66" si="9">IF(B3="","",ROW()-2)&amp;AZ3</f>
+        <f>IF(B3="","",ROW()-2)&amp;AZ3</f>
         <v>1郭</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA3" s="11" t="str">
-        <f t="shared" ref="BA3:BA66" si="10">SUBSTITUTE(I3," ","")</f>
+        <f>SUBSTITUTE(I3," ","")</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
       <c r="BB3" s="11" t="str">
-        <f t="shared" ref="BB3:BB66" si="11">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),SUBSTITUTE(SUBSTITUTE(BA3,"（","("),"）",")"),BA3)</f>
+        <f>IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),SUBSTITUTE(SUBSTITUTE(BA3,"（","("),"）",")"),BA3)</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A4" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX4,AY4)</f>
         <v>2郭</v>
       </c>
       <c r="B4" s="21">
@@ -7467,7 +7467,7 @@
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
       <c r="AI4" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="AJ4" s="40">
@@ -7483,32 +7483,32 @@
         <v>68</v>
       </c>
       <c r="AP4" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L4,4)</f>
         <v>TCKU</v>
       </c>
       <c r="AQ4" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L4,5,6)</f>
         <v>245463</v>
       </c>
       <c r="AR4" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP4,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP4,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP4,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ4,1,1)*2^4+MIDB(AQ4,2,1)*2^5+MIDB(AQ4,3,1)*2^6+MIDB(AQ4,4,1)*2^7+MIDB(AQ4,5,1)*2^8+MIDB(AQ4,6,1)*2^9,11),1)</f>
         <v>6</v>
       </c>
       <c r="AS4" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f>AP4&amp;AQ4&amp;AR4</f>
         <v>TCKU2454636</v>
       </c>
       <c r="AT4" s="12"/>
       <c r="AU4" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I4)=LENB(I4),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV4" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I4,2)&amp;FIND(")",I4,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW4" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I4="","√",IF(AU4="OK",IF(AV4="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX4" s="11" t="str">
@@ -7516,24 +7516,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\诚安泽\小申\HLCUTS1190849351</v>
       </c>
       <c r="AY4" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B4="","",ROW()-2)&amp;AZ4</f>
         <v>2郭</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA4" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I4," ","")</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
       <c r="BB4" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I4,2)&amp;FIND(")",I4,2)),SUBSTITUTE(SUBSTITUTE(BA4,"（","("),"）",")"),BA4)</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A5" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX5,AY5)</f>
         <v>3郭</v>
       </c>
       <c r="B5" s="21">
@@ -7620,7 +7620,7 @@
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
       <c r="AI5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="AJ5" s="40">
@@ -7634,32 +7634,32 @@
       <c r="AN5" s="41"/>
       <c r="AO5" s="51"/>
       <c r="AP5" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L5,4)</f>
         <v>DFSU</v>
       </c>
       <c r="AQ5" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L5,5,6)</f>
         <v>734164</v>
       </c>
       <c r="AR5" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP5,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP5,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP5,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ5,1,1)*2^4+MIDB(AQ5,2,1)*2^5+MIDB(AQ5,3,1)*2^6+MIDB(AQ5,4,1)*2^7+MIDB(AQ5,5,1)*2^8+MIDB(AQ5,6,1)*2^9,11),1)</f>
         <v>0</v>
       </c>
       <c r="AS5" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f>AP5&amp;AQ5&amp;AR5</f>
         <v>DFSU7341640</v>
       </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I5)=LENB(I5),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV5" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I5,2)&amp;FIND(")",I5,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW5" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I5="","√",IF(AU5="OK",IF(AV5="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX5" s="11" t="str">
@@ -7667,24 +7667,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\慧承供应链\刘晓敏\EASGP1914XI7004</v>
       </c>
       <c r="AY5" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B5="","",ROW()-2)&amp;AZ5</f>
         <v>3郭</v>
       </c>
       <c r="AZ5" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA5" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I5," ","")</f>
         <v>GUANGPING(达通广平)/1914E</v>
       </c>
       <c r="BB5" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I5,2)&amp;FIND(")",I5,2)),SUBSTITUTE(SUBSTITUTE(BA5,"（","("),"）",")"),BA5)</f>
         <v>GUANGPING(达通广平)/1914E</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A6" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX6,AY6)</f>
         <v>4郭</v>
       </c>
       <c r="B6" s="21">
@@ -7769,7 +7769,7 @@
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
       <c r="AI6" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1450</v>
       </c>
       <c r="AJ6" s="40">
@@ -7783,32 +7783,32 @@
       <c r="AN6" s="41"/>
       <c r="AO6" s="51"/>
       <c r="AP6" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L6,4)</f>
         <v>TCNU</v>
       </c>
       <c r="AQ6" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L6,5,6)</f>
         <v>376780</v>
       </c>
       <c r="AR6" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP6,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP6,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP6,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ6,1,1)*2^4+MIDB(AQ6,2,1)*2^5+MIDB(AQ6,3,1)*2^6+MIDB(AQ6,4,1)*2^7+MIDB(AQ6,5,1)*2^8+MIDB(AQ6,6,1)*2^9,11),1)</f>
         <v>9</v>
       </c>
       <c r="AS6" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f>AP6&amp;AQ6&amp;AR6</f>
         <v>TCNU3767809</v>
       </c>
       <c r="AT6" s="12"/>
       <c r="AU6" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I6)=LENB(I6),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV6" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I6,2)&amp;FIND(")",I6,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW6" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I6="","√",IF(AU6="OK",IF(AV6="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX6" s="11" t="str">
@@ -7816,24 +7816,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\慧承供应链\刘美霞\HLCUTS1190917819</v>
       </c>
       <c r="AY6" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B6="","",ROW()-2)&amp;AZ6</f>
         <v>4郭</v>
       </c>
       <c r="AZ6" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA6" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I6," ","")</f>
         <v>NYKLIBRA(日邮天秤星)/865E</v>
       </c>
       <c r="BB6" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I6,2)&amp;FIND(")",I6,2)),SUBSTITUTE(SUBSTITUTE(BA6,"（","("),"）",")"),BA6)</f>
         <v>NYKLIBRA(日邮天秤星)/865E</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A7" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX7,AY7)</f>
         <v>5郭</v>
       </c>
       <c r="B7" s="21">
@@ -7904,32 +7904,32 @@
       <c r="AN7" s="41"/>
       <c r="AO7" s="51"/>
       <c r="AP7" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L7,4)</f>
         <v/>
       </c>
       <c r="AQ7" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L7,5,6)</f>
         <v/>
       </c>
       <c r="AR7" s="49" t="e">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP7,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP7,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP7,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ7,1,1)*2^4+MIDB(AQ7,2,1)*2^5+MIDB(AQ7,3,1)*2^6+MIDB(AQ7,4,1)*2^7+MIDB(AQ7,5,1)*2^8+MIDB(AQ7,6,1)*2^9,11),1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS7" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f>AP7&amp;AQ7&amp;AR7</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT7" s="12"/>
       <c r="AU7" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I7)=LENB(I7),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV7" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I7,2)&amp;FIND(")",I7,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW7" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I7="","√",IF(AU7="OK",IF(AV7="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX7" s="11" t="str">
@@ -7937,24 +7937,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\福日莱\乔鑫\OOLU2619097240</v>
       </c>
       <c r="AY7" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B7="","",ROW()-2)&amp;AZ7</f>
         <v>5郭</v>
       </c>
       <c r="AZ7" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA7" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I7," ","")</f>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
       <c r="BB7" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I7,2)&amp;FIND(")",I7,2)),SUBSTITUTE(SUBSTITUTE(BA7,"（","("),"）",")"),BA7)</f>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A8" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX8,AY8)</f>
         <v>6</v>
       </c>
       <c r="B8" s="21">
@@ -8020,32 +8020,32 @@
       <c r="AN8" s="41"/>
       <c r="AO8" s="51"/>
       <c r="AP8" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L8,4)</f>
         <v/>
       </c>
       <c r="AQ8" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L8,5,6)</f>
         <v/>
       </c>
       <c r="AR8" s="49" t="e">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP8,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP8,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP8,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ8,1,1)*2^4+MIDB(AQ8,2,1)*2^5+MIDB(AQ8,3,1)*2^6+MIDB(AQ8,4,1)*2^7+MIDB(AQ8,5,1)*2^8+MIDB(AQ8,6,1)*2^9,11),1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS8" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f>AP8&amp;AQ8&amp;AR8</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT8" s="12"/>
       <c r="AU8" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I8)=LENB(I8),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV8" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I8,2)&amp;FIND(")",I8,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW8" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I8="","√",IF(AU8="OK",IF(AV8="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX8" s="11" t="str">
@@ -8053,22 +8053,22 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\福日莱\乔鑫\TSHX049053</v>
       </c>
       <c r="AY8" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B8="","",ROW()-2)&amp;AZ8</f>
         <v>6</v>
       </c>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I8," ","")</f>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
       <c r="BB8" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I8,2)&amp;FIND(")",I8,2)),SUBSTITUTE(SUBSTITUTE(BA8,"（","("),"）",")"),BA8)</f>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A9" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX9,AY9)</f>
         <v>7</v>
       </c>
       <c r="B9" s="21">
@@ -8142,32 +8142,32 @@
       <c r="AN9" s="41"/>
       <c r="AO9" s="51"/>
       <c r="AP9" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L9,4)</f>
         <v/>
       </c>
       <c r="AQ9" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L9,5,6)</f>
         <v/>
       </c>
       <c r="AR9" s="49" t="e">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP9,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP9,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP9,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ9,1,1)*2^4+MIDB(AQ9,2,1)*2^5+MIDB(AQ9,3,1)*2^6+MIDB(AQ9,4,1)*2^7+MIDB(AQ9,5,1)*2^8+MIDB(AQ9,6,1)*2^9,11),1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS9" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f>AP9&amp;AQ9&amp;AR9</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT9" s="12"/>
       <c r="AU9" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I9)=LENB(I9),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV9" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I9,2)&amp;FIND(")",I9,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW9" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I9="","√",IF(AU9="OK",IF(AV9="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX9" s="11" t="str">
@@ -8175,22 +8175,22 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\伊布拉欣\小杨\TXHX000703</v>
       </c>
       <c r="AY9" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B9="","",ROW()-2)&amp;AZ9</f>
         <v>7</v>
       </c>
       <c r="AZ9" s="11"/>
       <c r="BA9" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I9," ","")</f>
         <v>CMACGMTUTICORIN(达飞杜蒂戈林)/0SV31W</v>
       </c>
       <c r="BB9" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I9,2)&amp;FIND(")",I9,2)),SUBSTITUTE(SUBSTITUTE(BA9,"（","("),"）",")"),BA9)</f>
         <v>CMACGMTUTICORIN(达飞杜蒂戈林)/0SV31W</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A10" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK(AX10,AY10)</f>
         <v>8</v>
       </c>
       <c r="B10" s="21">
@@ -8264,32 +8264,32 @@
       <c r="AN10" s="41"/>
       <c r="AO10" s="51"/>
       <c r="AP10" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(L10,4)</f>
         <v/>
       </c>
       <c r="AQ10" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(L10,5,6)</f>
         <v/>
       </c>
       <c r="AR10" s="49" t="e">
-        <f t="shared" si="4"/>
+        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP10,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP10,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP10,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ10,1,1)*2^4+MIDB(AQ10,2,1)*2^5+MIDB(AQ10,3,1)*2^6+MIDB(AQ10,4,1)*2^7+MIDB(AQ10,5,1)*2^8+MIDB(AQ10,6,1)*2^9,11),1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS10" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f>AP10&amp;AQ10&amp;AR10</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT10" s="12"/>
       <c r="AU10" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(LEN(I10)=LENB(I10),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV10" s="50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISERROR(FIND("(",I10,2)&amp;FIND(")",I10,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW10" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(I10="","√",IF(AU10="OK",IF(AV10="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX10" s="11" t="str">
@@ -8297,16 +8297,16 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\华泰通\程美\SJZH002267</v>
       </c>
       <c r="AY10" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(B10="","",ROW()-2)&amp;AZ10</f>
         <v>8</v>
       </c>
       <c r="AZ10" s="11"/>
       <c r="BA10" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f>SUBSTITUTE(I10," ","")</f>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
       <c r="BB10" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISERROR(FIND("(",I10,2)&amp;FIND(")",I10,2)),SUBSTITUTE(SUBSTITUTE(BA10,"（","("),"）",")"),BA10)</f>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
     </row>
@@ -8386,17 +8386,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C11:C1048576">
       <formula1>[1]客户档案!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U10 U11:U1048576">
+      <formula1>[1]司机联系!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10">
       <formula1>"20GP,40HC,40GP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U10 U11:U1048576">
-      <formula1>[1]司机联系!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D106 D107:D731 D732:D1048185 D1048186:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D192 D193:D817 D818:D1048271 D1048272:D1048576">
       <formula1>INDIRECT($C1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL10 AL11:AL1048576">
-      <formula1>"大春,李宏博,杨瑞"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X10 X11:X1048576">
+      <formula1>"出, 进"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R11:R1048576">
       <formula1>"已换单,已留车,产装中,已落重,已集港,无舱单,已交运抵,运抵正常,办理转船,已离港"</formula1>
@@ -8404,11 +8404,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T10 T11:T1048576">
       <formula1>"联盟国际,欧亚国际,东方海陆,集装箱,五洲国际,太平洋"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL10 AL11:AL1048576">
+      <formula1>"大春,李宏博,杨瑞"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ10 AZ11:AZ1048576">
       <formula1>"郭,鱼"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X10 X11:X1048576">
-      <formula1>"出, 进"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/public/upload/数据源3月24.xlsx
+++ b/public/upload/数据源3月24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24855" windowHeight="9375"/>
+    <workbookView windowWidth="22980" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -405,11 +405,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -484,6 +484,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -497,37 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -536,76 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,6 +568,60 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +678,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,13 +744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,25 +768,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,43 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,67 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,6 +942,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -958,21 +997,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,41 +1021,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +1043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,133 +1055,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6953,7 +6953,7 @@
   <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A3" s="20" t="str">
-        <f>HYPERLINK(AX3,AY3)</f>
+        <f t="shared" ref="A3:A66" si="0">HYPERLINK(AX3,AY3)</f>
         <v>1郭</v>
       </c>
       <c r="B3" s="21">
@@ -7312,7 +7312,7 @@
       <c r="AG3" s="36"/>
       <c r="AH3" s="36"/>
       <c r="AI3" s="39">
-        <f t="shared" ref="AI3:AI6" si="0">SUM(Y3:AH3)</f>
+        <f t="shared" ref="AI3:AI6" si="1">SUM(Y3:AH3)</f>
         <v>900</v>
       </c>
       <c r="AJ3" s="40">
@@ -7328,32 +7328,32 @@
         <v>68</v>
       </c>
       <c r="AP3" s="48" t="str">
-        <f>LEFT(L3,4)</f>
+        <f t="shared" ref="AP3:AP66" si="2">LEFT(L3,4)</f>
         <v>HLXU</v>
       </c>
       <c r="AQ3" s="48" t="str">
-        <f>MID(L3,5,6)</f>
+        <f t="shared" ref="AQ3:AQ66" si="3">MID(L3,5,6)</f>
         <v>314037</v>
       </c>
       <c r="AR3" s="49" t="str">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP3,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP3,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP3,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ3,1,1)*2^4+MIDB(AQ3,2,1)*2^5+MIDB(AQ3,3,1)*2^6+MIDB(AQ3,4,1)*2^7+MIDB(AQ3,5,1)*2^8+MIDB(AQ3,6,1)*2^9,11),1)</f>
+        <f t="shared" ref="AR3:AR66" si="4">""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP3,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP3,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP3,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ3,1,1)*2^4+MIDB(AQ3,2,1)*2^5+MIDB(AQ3,3,1)*2^6+MIDB(AQ3,4,1)*2^7+MIDB(AQ3,5,1)*2^8+MIDB(AQ3,6,1)*2^9,11),1)</f>
         <v>4</v>
       </c>
       <c r="AS3" s="45" t="str">
-        <f>AP3&amp;AQ3&amp;AR3</f>
+        <f t="shared" ref="AS3:AS66" si="5">AP3&amp;AQ3&amp;AR3</f>
         <v>HLXU3140374</v>
       </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="11" t="str">
-        <f>IF(LEN(I3)=LENB(I3),"不含中文船名","ok")</f>
+        <f t="shared" ref="AU3:AU66" si="6">IF(LEN(I3)=LENB(I3),"不含中文船名","ok")</f>
         <v>ok</v>
       </c>
       <c r="AV3" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),"ok","ok")</f>
+        <f t="shared" ref="AV3:AV66" si="7">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),"ok","ok")</f>
         <v>ok</v>
       </c>
       <c r="AW3" s="29" t="str">
-        <f>IF(I3="","√",IF(AU3="OK",IF(AV3="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" ref="AW3:AW66" si="8">IF(I3="","√",IF(AU3="OK",IF(AV3="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
         <v>√</v>
       </c>
       <c r="AX3" s="11" t="str">
@@ -7361,24 +7361,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\诚安泽\小申\HLCUTS1190849351</v>
       </c>
       <c r="AY3" s="11" t="str">
-        <f>IF(B3="","",ROW()-2)&amp;AZ3</f>
+        <f t="shared" ref="AY3:AY66" si="9">IF(B3="","",ROW()-2)&amp;AZ3</f>
         <v>1郭</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA3" s="11" t="str">
-        <f>SUBSTITUTE(I3," ","")</f>
+        <f t="shared" ref="BA3:BA66" si="10">SUBSTITUTE(I3," ","")</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
       <c r="BB3" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),SUBSTITUTE(SUBSTITUTE(BA3,"（","("),"）",")"),BA3)</f>
+        <f t="shared" ref="BB3:BB66" si="11">IF(ISERROR(FIND("(",I3,2)&amp;FIND(")",I3,2)),SUBSTITUTE(SUBSTITUTE(BA3,"（","("),"）",")"),BA3)</f>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A4" s="20" t="str">
-        <f>HYPERLINK(AX4,AY4)</f>
+        <f t="shared" si="0"/>
         <v>2郭</v>
       </c>
       <c r="B4" s="21">
@@ -7467,7 +7467,7 @@
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
       <c r="AI4" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="AJ4" s="40">
@@ -7483,32 +7483,32 @@
         <v>68</v>
       </c>
       <c r="AP4" s="48" t="str">
-        <f>LEFT(L4,4)</f>
+        <f t="shared" si="2"/>
         <v>TCKU</v>
       </c>
       <c r="AQ4" s="48" t="str">
-        <f>MID(L4,5,6)</f>
+        <f t="shared" si="3"/>
         <v>245463</v>
       </c>
       <c r="AR4" s="49" t="str">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP4,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP4,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP4,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ4,1,1)*2^4+MIDB(AQ4,2,1)*2^5+MIDB(AQ4,3,1)*2^6+MIDB(AQ4,4,1)*2^7+MIDB(AQ4,5,1)*2^8+MIDB(AQ4,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AS4" s="45" t="str">
-        <f>AP4&amp;AQ4&amp;AR4</f>
+        <f t="shared" si="5"/>
         <v>TCKU2454636</v>
       </c>
       <c r="AT4" s="12"/>
       <c r="AU4" s="11" t="str">
-        <f>IF(LEN(I4)=LENB(I4),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV4" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I4,2)&amp;FIND(")",I4,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW4" s="29" t="str">
-        <f>IF(I4="","√",IF(AU4="OK",IF(AV4="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX4" s="11" t="str">
@@ -7516,24 +7516,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\诚安泽\小申\HLCUTS1190849351</v>
       </c>
       <c r="AY4" s="11" t="str">
-        <f>IF(B4="","",ROW()-2)&amp;AZ4</f>
+        <f t="shared" si="9"/>
         <v>2郭</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA4" s="11" t="str">
-        <f>SUBSTITUTE(I4," ","")</f>
+        <f t="shared" si="10"/>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
       <c r="BB4" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I4,2)&amp;FIND(")",I4,2)),SUBSTITUTE(SUBSTITUTE(BA4,"（","("),"）",")"),BA4)</f>
+        <f t="shared" si="11"/>
         <v>ALNEFUD(阿拉伯内夫德)/008W</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A5" s="20" t="str">
-        <f>HYPERLINK(AX5,AY5)</f>
+        <f t="shared" si="0"/>
         <v>3郭</v>
       </c>
       <c r="B5" s="21">
@@ -7620,7 +7620,7 @@
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
       <c r="AI5" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="AJ5" s="40">
@@ -7634,32 +7634,32 @@
       <c r="AN5" s="41"/>
       <c r="AO5" s="51"/>
       <c r="AP5" s="48" t="str">
-        <f>LEFT(L5,4)</f>
+        <f t="shared" si="2"/>
         <v>DFSU</v>
       </c>
       <c r="AQ5" s="48" t="str">
-        <f>MID(L5,5,6)</f>
+        <f t="shared" si="3"/>
         <v>734164</v>
       </c>
       <c r="AR5" s="49" t="str">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP5,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP5,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP5,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ5,1,1)*2^4+MIDB(AQ5,2,1)*2^5+MIDB(AQ5,3,1)*2^6+MIDB(AQ5,4,1)*2^7+MIDB(AQ5,5,1)*2^8+MIDB(AQ5,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS5" s="45" t="str">
-        <f>AP5&amp;AQ5&amp;AR5</f>
+        <f t="shared" si="5"/>
         <v>DFSU7341640</v>
       </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="11" t="str">
-        <f>IF(LEN(I5)=LENB(I5),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV5" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I5,2)&amp;FIND(")",I5,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW5" s="29" t="str">
-        <f>IF(I5="","√",IF(AU5="OK",IF(AV5="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX5" s="11" t="str">
@@ -7667,24 +7667,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\慧承供应链\刘晓敏\EASGP1914XI7004</v>
       </c>
       <c r="AY5" s="11" t="str">
-        <f>IF(B5="","",ROW()-2)&amp;AZ5</f>
+        <f t="shared" si="9"/>
         <v>3郭</v>
       </c>
       <c r="AZ5" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA5" s="11" t="str">
-        <f>SUBSTITUTE(I5," ","")</f>
+        <f t="shared" si="10"/>
         <v>GUANGPING(达通广平)/1914E</v>
       </c>
       <c r="BB5" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I5,2)&amp;FIND(")",I5,2)),SUBSTITUTE(SUBSTITUTE(BA5,"（","("),"）",")"),BA5)</f>
+        <f t="shared" si="11"/>
         <v>GUANGPING(达通广平)/1914E</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A6" s="20" t="str">
-        <f>HYPERLINK(AX6,AY6)</f>
+        <f t="shared" si="0"/>
         <v>4郭</v>
       </c>
       <c r="B6" s="21">
@@ -7769,7 +7769,7 @@
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
       <c r="AI6" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1450</v>
       </c>
       <c r="AJ6" s="40">
@@ -7783,32 +7783,32 @@
       <c r="AN6" s="41"/>
       <c r="AO6" s="51"/>
       <c r="AP6" s="48" t="str">
-        <f>LEFT(L6,4)</f>
+        <f t="shared" si="2"/>
         <v>TCNU</v>
       </c>
       <c r="AQ6" s="48" t="str">
-        <f>MID(L6,5,6)</f>
+        <f t="shared" si="3"/>
         <v>376780</v>
       </c>
       <c r="AR6" s="49" t="str">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP6,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP6,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP6,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ6,1,1)*2^4+MIDB(AQ6,2,1)*2^5+MIDB(AQ6,3,1)*2^6+MIDB(AQ6,4,1)*2^7+MIDB(AQ6,5,1)*2^8+MIDB(AQ6,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AS6" s="45" t="str">
-        <f>AP6&amp;AQ6&amp;AR6</f>
+        <f t="shared" si="5"/>
         <v>TCNU3767809</v>
       </c>
       <c r="AT6" s="12"/>
       <c r="AU6" s="11" t="str">
-        <f>IF(LEN(I6)=LENB(I6),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV6" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I6,2)&amp;FIND(")",I6,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW6" s="29" t="str">
-        <f>IF(I6="","√",IF(AU6="OK",IF(AV6="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX6" s="11" t="str">
@@ -7816,24 +7816,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\慧承供应链\刘美霞\HLCUTS1190917819</v>
       </c>
       <c r="AY6" s="11" t="str">
-        <f>IF(B6="","",ROW()-2)&amp;AZ6</f>
+        <f t="shared" si="9"/>
         <v>4郭</v>
       </c>
       <c r="AZ6" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA6" s="11" t="str">
-        <f>SUBSTITUTE(I6," ","")</f>
+        <f t="shared" si="10"/>
         <v>NYKLIBRA(日邮天秤星)/865E</v>
       </c>
       <c r="BB6" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I6,2)&amp;FIND(")",I6,2)),SUBSTITUTE(SUBSTITUTE(BA6,"（","("),"）",")"),BA6)</f>
+        <f t="shared" si="11"/>
         <v>NYKLIBRA(日邮天秤星)/865E</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A7" s="20" t="str">
-        <f>HYPERLINK(AX7,AY7)</f>
+        <f t="shared" si="0"/>
         <v>5郭</v>
       </c>
       <c r="B7" s="21">
@@ -7904,32 +7904,32 @@
       <c r="AN7" s="41"/>
       <c r="AO7" s="51"/>
       <c r="AP7" s="48" t="str">
-        <f>LEFT(L7,4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ7" s="48" t="str">
-        <f>MID(L7,5,6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR7" s="49" t="e">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP7,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP7,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP7,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ7,1,1)*2^4+MIDB(AQ7,2,1)*2^5+MIDB(AQ7,3,1)*2^6+MIDB(AQ7,4,1)*2^7+MIDB(AQ7,5,1)*2^8+MIDB(AQ7,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS7" s="45" t="e">
-        <f>AP7&amp;AQ7&amp;AR7</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT7" s="12"/>
       <c r="AU7" s="11" t="str">
-        <f>IF(LEN(I7)=LENB(I7),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV7" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I7,2)&amp;FIND(")",I7,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW7" s="29" t="str">
-        <f>IF(I7="","√",IF(AU7="OK",IF(AV7="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX7" s="11" t="str">
@@ -7937,24 +7937,24 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\福日莱\乔鑫\OOLU2619097240</v>
       </c>
       <c r="AY7" s="11" t="str">
-        <f>IF(B7="","",ROW()-2)&amp;AZ7</f>
+        <f t="shared" si="9"/>
         <v>5郭</v>
       </c>
       <c r="AZ7" s="11" t="s">
         <v>69</v>
       </c>
       <c r="BA7" s="11" t="str">
-        <f>SUBSTITUTE(I7," ","")</f>
+        <f t="shared" si="10"/>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
       <c r="BB7" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I7,2)&amp;FIND(")",I7,2)),SUBSTITUTE(SUBSTITUTE(BA7,"（","("),"）",")"),BA7)</f>
+        <f t="shared" si="11"/>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A8" s="20" t="str">
-        <f>HYPERLINK(AX8,AY8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="21">
@@ -8020,32 +8020,32 @@
       <c r="AN8" s="41"/>
       <c r="AO8" s="51"/>
       <c r="AP8" s="48" t="str">
-        <f>LEFT(L8,4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ8" s="48" t="str">
-        <f>MID(L8,5,6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR8" s="49" t="e">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP8,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP8,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP8,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ8,1,1)*2^4+MIDB(AQ8,2,1)*2^5+MIDB(AQ8,3,1)*2^6+MIDB(AQ8,4,1)*2^7+MIDB(AQ8,5,1)*2^8+MIDB(AQ8,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS8" s="45" t="e">
-        <f>AP8&amp;AQ8&amp;AR8</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT8" s="12"/>
       <c r="AU8" s="11" t="str">
-        <f>IF(LEN(I8)=LENB(I8),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV8" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I8,2)&amp;FIND(")",I8,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW8" s="29" t="str">
-        <f>IF(I8="","√",IF(AU8="OK",IF(AV8="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX8" s="11" t="str">
@@ -8053,22 +8053,22 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\福日莱\乔鑫\TSHX049053</v>
       </c>
       <c r="AY8" s="11" t="str">
-        <f>IF(B8="","",ROW()-2)&amp;AZ8</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11" t="str">
-        <f>SUBSTITUTE(I8," ","")</f>
+        <f t="shared" si="10"/>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
       <c r="BB8" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I8,2)&amp;FIND(")",I8,2)),SUBSTITUTE(SUBSTITUTE(BA8,"（","("),"）",")"),BA8)</f>
+        <f t="shared" si="11"/>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A9" s="20" t="str">
-        <f>HYPERLINK(AX9,AY9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="21">
@@ -8142,32 +8142,32 @@
       <c r="AN9" s="41"/>
       <c r="AO9" s="51"/>
       <c r="AP9" s="48" t="str">
-        <f>LEFT(L9,4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ9" s="48" t="str">
-        <f>MID(L9,5,6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR9" s="49" t="e">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP9,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP9,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP9,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ9,1,1)*2^4+MIDB(AQ9,2,1)*2^5+MIDB(AQ9,3,1)*2^6+MIDB(AQ9,4,1)*2^7+MIDB(AQ9,5,1)*2^8+MIDB(AQ9,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS9" s="45" t="e">
-        <f>AP9&amp;AQ9&amp;AR9</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT9" s="12"/>
       <c r="AU9" s="11" t="str">
-        <f>IF(LEN(I9)=LENB(I9),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV9" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I9,2)&amp;FIND(")",I9,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW9" s="29" t="str">
-        <f>IF(I9="","√",IF(AU9="OK",IF(AV9="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX9" s="11" t="str">
@@ -8175,22 +8175,22 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\伊布拉欣\小杨\TXHX000703</v>
       </c>
       <c r="AY9" s="11" t="str">
-        <f>IF(B9="","",ROW()-2)&amp;AZ9</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AZ9" s="11"/>
       <c r="BA9" s="11" t="str">
-        <f>SUBSTITUTE(I9," ","")</f>
+        <f t="shared" si="10"/>
         <v>CMACGMTUTICORIN(达飞杜蒂戈林)/0SV31W</v>
       </c>
       <c r="BB9" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I9,2)&amp;FIND(")",I9,2)),SUBSTITUTE(SUBSTITUTE(BA9,"（","("),"）",")"),BA9)</f>
+        <f t="shared" si="11"/>
         <v>CMACGMTUTICORIN(达飞杜蒂戈林)/0SV31W</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:54">
       <c r="A10" s="20" t="str">
-        <f>HYPERLINK(AX10,AY10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="21">
@@ -8264,32 +8264,32 @@
       <c r="AN10" s="41"/>
       <c r="AO10" s="51"/>
       <c r="AP10" s="48" t="str">
-        <f>LEFT(L10,4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ10" s="48" t="str">
-        <f>MID(L10,5,6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR10" s="49" t="e">
-        <f>""&amp;RIGHT(MOD((CHOOSE((CODE(MIDB(AP10,1,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^0+CHOOSE((CODE(MIDB(AP10,2,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^1+CHOOSE((CODE(MIDB(AP10,3,1))-64),10,12,13,14,15,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,34,35,36,37,38)*2^2+32*2^3)+MIDB(AQ10,1,1)*2^4+MIDB(AQ10,2,1)*2^5+MIDB(AQ10,3,1)*2^6+MIDB(AQ10,4,1)*2^7+MIDB(AQ10,5,1)*2^8+MIDB(AQ10,6,1)*2^9,11),1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS10" s="45" t="e">
-        <f>AP10&amp;AQ10&amp;AR10</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT10" s="12"/>
       <c r="AU10" s="11" t="str">
-        <f>IF(LEN(I10)=LENB(I10),"不含中文船名","ok")</f>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="AV10" s="50" t="str">
-        <f>IF(ISERROR(FIND("(",I10,2)&amp;FIND(")",I10,2)),"ok","ok")</f>
+        <f t="shared" si="7"/>
         <v>ok</v>
       </c>
       <c r="AW10" s="29" t="str">
-        <f>IF(I10="","√",IF(AU10="OK",IF(AV10="OK","√","（）不是英文状态下输入的"),"无中文船名"))</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
       <c r="AX10" s="11" t="str">
@@ -8297,16 +8297,16 @@
         <v>\\OPENWRT\vol1\小郭\档案\3月\华泰通\程美\SJZH002267</v>
       </c>
       <c r="AY10" s="11" t="str">
-        <f>IF(B10="","",ROW()-2)&amp;AZ10</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AZ10" s="11"/>
       <c r="BA10" s="11" t="str">
-        <f>SUBSTITUTE(I10," ","")</f>
+        <f t="shared" si="10"/>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
       <c r="BB10" s="11" t="str">
-        <f>IF(ISERROR(FIND("(",I10,2)&amp;FIND(")",I10,2)),SUBSTITUTE(SUBSTITUTE(BA10,"（","("),"）",")"),BA10)</f>
+        <f t="shared" si="11"/>
         <v>CMACGMZHENGHE(达飞郑和)/0FL39W</v>
       </c>
     </row>
@@ -8389,26 +8389,26 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U10 U11:U1048576">
       <formula1>[1]司机联系!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D106 D107:D731 D732:D1048185 D1048186:D1048576">
+      <formula1>INDIRECT($C1)</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10">
       <formula1>"20GP,40HC,40GP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D192 D193:D817 D818:D1048271 D1048272:D1048576">
-      <formula1>INDIRECT($C1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R11:R1048576">
+      <formula1>"已换单,已留车,产装中,已落重,已集港,无舱单,已交运抵,运抵正常,办理转船,已离港"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ10 AZ11:AZ1048576">
+      <formula1>"郭,鱼"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T10 T11:T1048576">
+      <formula1>"联盟国际,欧亚国际,东方海陆,集装箱,五洲国际,太平洋"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X10 X11:X1048576">
       <formula1>"出, 进"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R11:R1048576">
-      <formula1>"已换单,已留车,产装中,已落重,已集港,无舱单,已交运抵,运抵正常,办理转船,已离港"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T10 T11:T1048576">
-      <formula1>"联盟国际,欧亚国际,东方海陆,集装箱,五洲国际,太平洋"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL10 AL11:AL1048576">
       <formula1>"大春,李宏博,杨瑞"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ10 AZ11:AZ1048576">
-      <formula1>"郭,鱼"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
